--- a/271025_Results_Med/output/m3/27102025_mod3_by_age_r.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_age_r.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4962,17 +4962,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>53 (41.4%)</t>
+          <t>53 (40.2%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>44 (45.8%)</t>
+          <t>44 (41.1%)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>42 (56.8%)</t>
+          <t>42 (42.9%)</t>
         </is>
       </c>
       <c r="G132">
@@ -5002,12 +5002,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>5 (5.2%)</t>
+          <t>5 (4.7%)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>4 (5.4%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="G133">
@@ -5027,22 +5027,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>63 (49.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>37 (38.5%)</t>
+          <t>4 (3.7%)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>6 (8.1%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="G134">
@@ -5062,22 +5062,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>63 (47.7%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>37 (34.6%)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2 (2.7%)</t>
+          <t>6 (6.1%)</t>
         </is>
       </c>
       <c r="G135">
@@ -5097,22 +5097,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>8 (6.2%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>9 (9.4%)</t>
+          <t>1 (0.9%)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>20 (27.0%)</t>
+          <t>2 (2.0%)</t>
         </is>
       </c>
       <c r="G136">
@@ -5122,71 +5122,71 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>4 (3.0%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>4 (9.1%)</t>
+          <t>7 (6.5%)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>20 (20.4%)</t>
         </is>
       </c>
       <c r="G137">
-        <v>0.0095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>8 (6.1%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>5 (11.4%)</t>
+          <t>9 (8.4%)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2 (4.4%)</t>
+          <t>20 (20.4%)</t>
         </is>
       </c>
       <c r="G138">
-        <v>0.0095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5202,26 +5202,26 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>56 (90.3%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>26 (59.1%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>33 (73.3%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G139">
-        <v>0.0095</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="140">
@@ -5237,822 +5237,1155 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4 (6.5%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>9 (20.5%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>9 (20.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G140">
-        <v>0.0095</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G141">
-        <v>0.8357</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>57 (96.6%)</t>
+          <t>56 (38.4%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>59 (98.3%)</t>
+          <t>26 (20.0%)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>77 (97.5%)</t>
+          <t>33 (27.0%)</t>
         </is>
       </c>
       <c r="G142">
-        <v>0.8357</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>36 (31.0%)</t>
+          <t>51 (34.9%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>18 (17.8%)</t>
+          <t>60 (46.2%)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>28 (28.6%)</t>
+          <t>45 (36.9%)</t>
         </is>
       </c>
       <c r="G143">
-        <v>0.1082</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>3 (2.6%)</t>
+          <t>28 (19.2%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>4 (4.0%)</t>
+          <t>24 (18.5%)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>29 (23.8%)</t>
         </is>
       </c>
       <c r="G144">
-        <v>0.1082</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>7 (6.0%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>12 (11.9%)</t>
+          <t>9 (6.9%)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>5 (5.1%)</t>
+          <t>9 (7.4%)</t>
         </is>
       </c>
       <c r="G145">
-        <v>0.1082</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>7 (6.0%)</t>
+          <t>37 (25.3%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>6 (5.9%)</t>
+          <t>43 (33.1%)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>3 (3.1%)</t>
+          <t>17 (13.9%)</t>
         </is>
       </c>
       <c r="G146">
-        <v>0.1082</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>63 (54.3%)</t>
+          <t>6 (4.1%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>61 (60.4%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>62 (63.3%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G147">
-        <v>0.1082</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>14 (10.6%)</t>
+          <t>15 (10.3%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>10 (7.9%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>9 (7.9%)</t>
+          <t>8 (6.6%)</t>
         </is>
       </c>
       <c r="G148">
-        <v>0.0469</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>24 (18.2%)</t>
+          <t>5 (3.4%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>9 (7.1%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>12 (10.5%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G149">
-        <v>0.0469</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>21 (15.9%)</t>
+          <t>57 (39.0%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>13 (10.2%)</t>
+          <t>59 (45.4%)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>17 (14.9%)</t>
+          <t>77 (63.1%)</t>
         </is>
       </c>
       <c r="G150">
-        <v>0.0469</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>22 (16.7%)</t>
+          <t>26 (17.8%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>28 (22.0%)</t>
+          <t>17 (13.1%)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>23 (20.2%)</t>
+          <t>13 (10.7%)</t>
         </is>
       </c>
       <c r="G151">
-        <v>0.0469</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>42 (31.8%)</t>
+          <t>36 (24.7%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>64 (50.4%)</t>
+          <t>18 (13.8%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>47 (41.2%)</t>
+          <t>28 (23.1%)</t>
         </is>
       </c>
       <c r="G152">
-        <v>0.0469</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>9 (6.8%)</t>
+          <t>33 (22.6%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>3 (2.4%)</t>
+          <t>33 (25.4%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>6 (5.3%)</t>
+          <t>23 (19.0%)</t>
         </is>
       </c>
       <c r="G153">
-        <v>0.0469</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (9.2%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G154">
-        <v>0.305</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G155">
-        <v>0.7322</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>63 (43.2%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>61 (46.9%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>62 (51.2%)</t>
         </is>
       </c>
       <c r="G156">
-        <v>0.009900000000000001</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (9.6%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (7.7%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (7.4%)</t>
         </is>
       </c>
       <c r="G157">
-        <v>0.295</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>24 (16.4%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (6.9%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (9.8%)</t>
         </is>
       </c>
       <c r="G158">
-        <v>0.9991</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>21 (14.4%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>13 (10.0%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>17 (13.9%)</t>
         </is>
       </c>
       <c r="G159">
-        <v>0.7475000000000001</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>36 (24.7%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>31 (23.8%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>31 (25.4%)</t>
         </is>
       </c>
       <c r="G160">
-        <v>0.303</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>42 (28.8%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>64 (49.2%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>47 (38.5%)</t>
         </is>
       </c>
       <c r="G161">
-        <v>0.427</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>4.5 (3.0–5.0)</t>
+          <t>9 (6.2%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (4.9%)</t>
         </is>
       </c>
       <c r="G162">
-        <v>0.2816</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G163">
+        <v>0.8506</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3.0 (2.5–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3.0 (2.8–4.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="G164">
-        <v>0.8386</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G165">
+        <v>0.0245</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G166">
+        <v>0.2279</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G167">
+        <v>0.6133999999999999</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>4.0 (2.2–5.0)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G168">
+        <v>0.5616</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G169">
+        <v>0.4057</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.0 (1.2–5.0)</t>
+        </is>
+      </c>
+      <c r="G170">
+        <v>0.5503</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G171">
+        <v>0.6419</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G172">
+        <v>0.1136</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.0 (2.5–4.0)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.0 (2.8–4.0)</t>
+        </is>
+      </c>
+      <c r="G173">
+        <v>0.8386</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>4.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="G165">
+      <c r="G174">
         <v>0.2803</v>
       </c>
     </row>

--- a/271025_Results_Med/output/m3/27102025_mod3_by_age_r.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_age_r.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,21 +412,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G2">
-        <v>0.4208</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="3">
@@ -447,21 +447,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3 (3.6%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9 (11.5%)</t>
+          <t>9 (7.4%)</t>
         </is>
       </c>
       <c r="G3">
-        <v>0.4208</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="4">
@@ -482,91 +482,91 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78 (94.0%)</t>
+          <t>11 (7.5%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50 (90.9%)</t>
+          <t>9 (6.9%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68 (87.2%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.4208</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>78 (53.4%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>50 (38.5%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>68 (55.7%)</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.3257</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>52 (35.6%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>66 (50.8%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>41 (33.6%)</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.3257</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="7">
@@ -582,22 +582,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22 (15.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14 (10.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13 (10.7%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G7">
@@ -617,7 +617,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
+          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -627,12 +627,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G8">
@@ -652,22 +652,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>22 (15.1%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>14 (10.8%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11 (9.0%)</t>
+          <t>13 (10.7%)</t>
         </is>
       </c>
       <c r="G9">
@@ -687,12 +687,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G10">
@@ -722,12 +722,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6 (4.1%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7 (5.7%)</t>
+          <t>11 (9.0%)</t>
         </is>
       </c>
       <c r="G11">
@@ -757,22 +757,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7 (4.8%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G12">
@@ -792,22 +792,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>6 (4.1%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5 (3.8%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>7 (5.7%)</t>
         </is>
       </c>
       <c r="G13">
@@ -827,22 +827,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G14">
@@ -862,22 +862,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (3.8%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G15">
@@ -897,12 +897,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -932,22 +932,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12 (8.2%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13 (10.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G17">
@@ -967,22 +967,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5 (3.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G18">
@@ -1002,22 +1002,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>12 (8.2%)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>13 (10.0%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G19">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La comodidad (confort)</t>
+          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>5 (3.4%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G20">
@@ -1072,17 +1072,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La distancia que debe recorrer</t>
+          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1107,22 +1107,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La percepción de seguridad</t>
+          <t>El tiempo de viaje, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G22">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Otro</t>
+          <t>El tiempo de viaje, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
+          <t>El tiempo de viaje, La percepción de seguridad</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G24">
@@ -1212,22 +1212,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje, Otro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G25">
@@ -1247,17 +1247,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
+          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1282,17 +1282,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, Otro</t>
+          <t>La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1317,22 +1317,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>La comodidad (confort)</t>
+          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25 (17.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16 (12.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20 (16.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G28">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
+          <t>La autonomía o control sobre el viaje, Otro</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G29">
@@ -1387,22 +1387,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La comodidad (confort)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6 (4.1%)</t>
+          <t>25 (17.1%)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>16 (12.3%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>20 (16.4%)</t>
         </is>
       </c>
       <c r="G30">
@@ -1422,22 +1422,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El tiempo de viaje</t>
+          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7 (4.8%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11 (8.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5 (4.1%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G31">
@@ -1457,22 +1457,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
+          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>6 (4.1%)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G32">
@@ -1492,17 +1492,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La distancia que debe recorrer</t>
+          <t>La comodidad (confort), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5 (3.4%)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5 (3.8%)</t>
+          <t>11 (8.5%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1527,22 +1527,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La percepción de seguridad</t>
+          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G34">
@@ -1562,22 +1562,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Otro</t>
+          <t>La comodidad (confort), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (3.4%)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (3.8%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G35">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
+          <t>La comodidad (confort), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G36">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>La comodidad (confort), Otro</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G37">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer</t>
+          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8 (5.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G38">
@@ -1702,17 +1702,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
+          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1737,22 +1737,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>8 (5.5%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>5 (3.8%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G40">
@@ -1772,17 +1772,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El tiempo de viaje</t>
+          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, La comodidad (confort)</t>
+          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G42">
@@ -1842,17 +1842,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
+          <t>La distancia que debe recorrer, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>La percepción de seguridad</t>
+          <t>La distancia que debe recorrer, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G44">
@@ -1912,22 +1912,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
+          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G45">
@@ -1947,17 +1947,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La percepción de seguridad</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El tiempo de viaje</t>
+          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La comodidad (confort)</t>
+          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G48">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La distancia que debe recorrer</t>
+          <t>La percepción de seguridad, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2062,12 +2062,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G49">
@@ -2087,22 +2087,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>La percepción de seguridad, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G50">
@@ -2122,22 +2122,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental)</t>
+          <t>La percepción de seguridad, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G51">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G52">
@@ -2192,22 +2192,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G53">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2252,57 +2252,57 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Costo económico</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6 (4.1%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G55">
-        <v>0.0176</v>
+        <v>0.3257</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Falta de autonomía / control</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="G56">
-        <v>0.0176</v>
+        <v>0.3257</v>
       </c>
     </row>
     <row r="57">
@@ -2332,17 +2332,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Impacto ambiental</t>
+          <t>Costo económico</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>6 (4.1%)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2367,22 +2367,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Incomodidad / clima</t>
+          <t>Falta de autonomía / control</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>44 (30.1%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>48 (36.9%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>30 (24.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G58">
@@ -2402,22 +2402,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Inseguridad personal</t>
+          <t>Impacto ambiental</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7 (4.8%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>8 (6.2%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>7 (5.7%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G59">
@@ -2437,22 +2437,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nada le disgusta</t>
+          <t>Incomodidad / clima</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>30 (20.5%)</t>
+          <t>44 (30.1%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>40 (30.8%)</t>
+          <t>48 (36.9%)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>38 (31.1%)</t>
+          <t>30 (24.6%)</t>
         </is>
       </c>
       <c r="G60">
@@ -2472,22 +2472,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Inseguridad personal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>8 (6.2%)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>8 (6.6%)</t>
+          <t>7 (5.7%)</t>
         </is>
       </c>
       <c r="G61">
@@ -2507,22 +2507,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Riesgo de accidente</t>
+          <t>Nada le disgusta</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13 (8.9%)</t>
+          <t>30 (20.5%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10 (7.7%)</t>
+          <t>40 (30.8%)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>38 (31.1%)</t>
         </is>
       </c>
       <c r="G62">
@@ -2542,22 +2542,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sin respuesta</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (6.6%)</t>
         </is>
       </c>
       <c r="G63">
@@ -2577,22 +2577,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tiempo de viaje / espera</t>
+          <t>Riesgo de accidente</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>38 (26.0%)</t>
+          <t>13 (8.9%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11 (8.5%)</t>
+          <t>10 (7.7%)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>29 (23.8%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G64">
@@ -2602,71 +2602,71 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Congestión de tráfico</t>
+          <t>Sin respuesta</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>28 (19.2%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>19 (14.6%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>16 (13.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G65">
-        <v>0.2716</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Costos altos</t>
+          <t>Tiempo de viaje / espera</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>38 (26.0%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>11 (8.5%)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>29 (23.8%)</t>
         </is>
       </c>
       <c r="G66">
-        <v>0.2716</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="67">
@@ -2682,22 +2682,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
+          <t>Congestión de tráfico</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>28 (19.2%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>19 (14.6%)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>16 (13.1%)</t>
         </is>
       </c>
       <c r="G67">
@@ -2717,22 +2717,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
+          <t>Congestión de tráfico, Costos altos</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G68">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2762,12 +2762,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G69">
@@ -2787,22 +2787,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Multitud de personas</t>
+          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5 (3.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G70">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
+          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2832,12 +2832,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G71">
@@ -2857,17 +2857,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
+          <t>Congestión de tráfico, Multitud de personas</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>5 (3.4%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2892,22 +2892,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
+          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G73">
@@ -2927,22 +2927,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7 (4.8%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>8 (6.2%)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G74">
@@ -2962,12 +2962,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Costos altos, Congestión de tráfico</t>
+          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2997,22 +2997,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Costos altos, Dificultad para encontrar parqueadero</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (6.2%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G76">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Costos altos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3042,12 +3042,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G77">
@@ -3067,17 +3067,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Costos altos, Multitud de personas</t>
+          <t>Costos altos, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3102,22 +3102,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Costos altos, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G79">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de espera largos o inciertos</t>
+          <t>Costos altos, Multitud de personas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G80">
@@ -3172,17 +3172,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
+          <t>Costos altos, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3207,17 +3207,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero</t>
+          <t>Costos altos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3242,12 +3242,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G83">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
+          <t>Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G84">
@@ -3312,17 +3312,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador</t>
+          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
+          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G86">
@@ -3382,22 +3382,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Multitud de personas</t>
+          <t>Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G87">
@@ -3417,22 +3417,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>12 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>11 (8.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>13 (10.7%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G88">
@@ -3452,22 +3452,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
+          <t>Esfuerzo físico agotador, Multitud de personas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G89">
@@ -3487,22 +3487,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>12 (8.2%)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (8.5%)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (10.7%)</t>
         </is>
       </c>
       <c r="G90">
@@ -3522,22 +3522,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G91">
@@ -3557,22 +3557,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G92">
@@ -3592,22 +3592,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G93">
@@ -3627,22 +3627,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G94">
@@ -3662,12 +3662,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G96">
@@ -3732,22 +3732,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>8 (5.5%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>11 (8.5%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>11 (9.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G97">
@@ -3767,12 +3767,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Multitud de personas, Congestión de tráfico</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G98">
@@ -3802,22 +3802,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Multitud de personas, Costos altos</t>
+          <t>Multitud de personas</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>8 (5.5%)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>11 (8.5%)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (9.0%)</t>
         </is>
       </c>
       <c r="G99">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Multitud de personas, Esfuerzo físico agotador</t>
+          <t>Multitud de personas, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de robo o atraco</t>
+          <t>Multitud de personas, Costos altos</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G101">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Multitud de personas, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G102">
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G103">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G104">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Otro, Ninguno</t>
+          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>7 (5.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G105">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Otro, No sabe</t>
+          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4082,12 +4082,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Otro, Por comodidad</t>
+          <t>Otro, Ninguno</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>7 (5.7%)</t>
         </is>
       </c>
       <c r="G107">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
+          <t>Otro, No sabe</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G108">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Otro, Todas</t>
+          <t>Otro, Por comodidad</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G109">
@@ -4187,22 +4187,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco</t>
+          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>8 (6.6%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G110">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
+          <t>Otro, Todas</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G111">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (6.6%)</t>
         </is>
       </c>
       <c r="G112">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
+          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G113">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G114">
@@ -4362,22 +4362,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G115">
@@ -4397,22 +4397,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
+          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G116">
@@ -4432,22 +4432,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G117">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4502,22 +4502,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G119">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4572,22 +4572,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos</t>
+          <t>Ser víctima de situaciones de discriminación</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>13 (8.9%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>5 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G121">
@@ -4607,22 +4607,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
+          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>6 (4.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>7 (5.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G122">
@@ -4642,22 +4642,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Costos altos</t>
+          <t>Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>13 (8.9%)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G123">
@@ -4677,22 +4677,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>6 (4.1%)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>7 (5.4%)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G124">
@@ -4712,22 +4712,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de espera largos o inciertos, Costos altos</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G125">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>6 (4.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G126">
@@ -4782,22 +4782,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>5 (3.4%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>5 (3.8%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>8 (6.6%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G127">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
+          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>6 (4.1%)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4852,22 +4852,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (3.4%)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>5 (3.8%)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (6.6%)</t>
         </is>
       </c>
       <c r="G129">
@@ -4887,12 +4887,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G130">
@@ -4922,22 +4922,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
+          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G131">
@@ -4947,71 +4947,71 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>53 (40.2%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>44 (41.1%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>42 (42.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bicicleta</t>
+          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>5 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>4 (4.1%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="134">
@@ -5027,22 +5027,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Caminar</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>55 (37.7%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>4 (3.7%)</t>
+          <t>44 (33.8%)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>4 (4.1%)</t>
+          <t>43 (35.2%)</t>
         </is>
       </c>
       <c r="G134">
@@ -5062,22 +5062,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Bicicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>63 (47.7%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>37 (34.6%)</t>
+          <t>5 (3.8%)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>6 (6.1%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G135">
@@ -5097,22 +5097,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1 (0.9%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2 (2.0%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G136">
@@ -5132,22 +5132,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Taxi</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4 (3.0%)</t>
+          <t>63 (43.2%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>7 (6.5%)</t>
+          <t>37 (28.5%)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>20 (20.4%)</t>
+          <t>6 (4.9%)</t>
         </is>
       </c>
       <c r="G137">
@@ -5167,22 +5167,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>8 (6.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>9 (8.4%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>20 (20.4%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G138">
@@ -5192,71 +5192,71 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>7 (5.4%)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>20 (16.4%)</t>
         </is>
       </c>
       <c r="G139">
-        <v>0.0286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Falta de infraestructura / distancia</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>20 (13.7%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>31 (23.8%)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>43 (35.2%)</t>
         </is>
       </c>
       <c r="G140">
-        <v>0.0286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5272,22 +5272,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G141">
@@ -5307,22 +5307,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>56 (38.4%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>26 (20.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>33 (27.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="G142">
@@ -5342,22 +5342,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Modo actual</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>51 (34.9%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>60 (46.2%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>45 (36.9%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="G143">
@@ -5377,22 +5377,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>28 (19.2%)</t>
+          <t>56 (38.4%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>24 (18.5%)</t>
+          <t>26 (20.0%)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>29 (23.8%)</t>
+          <t>33 (27.0%)</t>
         </is>
       </c>
       <c r="G144">
@@ -5412,22 +5412,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>51 (34.9%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>9 (6.9%)</t>
+          <t>60 (46.2%)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>9 (7.4%)</t>
+          <t>45 (36.9%)</t>
         </is>
       </c>
       <c r="G145">
@@ -5437,71 +5437,71 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Industria/Obras</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>37 (25.3%)</t>
+          <t>28 (19.2%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>43 (33.1%)</t>
+          <t>24 (18.5%)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>17 (13.9%)</t>
+          <t>29 (23.8%)</t>
         </is>
       </c>
       <c r="G146">
-        <v>0.001</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>6 (4.1%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>9 (6.9%)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>9 (7.4%)</t>
         </is>
       </c>
       <c r="G147">
-        <v>0.001</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="148">
@@ -5517,22 +5517,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Productos químicos</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>15 (10.3%)</t>
+          <t>37 (25.3%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>43 (33.1%)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>8 (6.6%)</t>
+          <t>17 (13.9%)</t>
         </is>
       </c>
       <c r="G148">
@@ -5552,22 +5552,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Quema de residuos</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>5 (3.4%)</t>
+          <t>6 (4.1%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>5 (4.1%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="G149">
@@ -5587,22 +5587,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>57 (39.0%)</t>
+          <t>15 (10.3%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>59 (45.4%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>77 (63.1%)</t>
+          <t>8 (6.6%)</t>
         </is>
       </c>
       <c r="G150">
@@ -5622,22 +5622,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vertederos (basureros) y rellenos sanitarios</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>26 (17.8%)</t>
+          <t>5 (3.4%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>17 (13.1%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>13 (10.7%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G151">
@@ -5647,71 +5647,71 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>36 (24.7%)</t>
+          <t>57 (39.0%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>18 (13.8%)</t>
+          <t>59 (45.4%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>28 (23.1%)</t>
+          <t>77 (63.1%)</t>
         </is>
       </c>
       <c r="G152">
-        <v>0.2125</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>33 (22.6%)</t>
+          <t>26 (17.8%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>33 (25.4%)</t>
+          <t>17 (13.1%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>23 (19.0%)</t>
+          <t>13 (10.7%)</t>
         </is>
       </c>
       <c r="G153">
-        <v>0.2125</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="154">
@@ -5727,26 +5727,26 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>7 (4.8%)</t>
+          <t>39 (26.7%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>12 (9.2%)</t>
+          <t>22 (16.9%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>5 (4.1%)</t>
+          <t>28 (23.0%)</t>
         </is>
       </c>
       <c r="G154">
-        <v>0.2125</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="155">
@@ -5762,26 +5762,26 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>7 (4.8%)</t>
+          <t>30 (20.5%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>29 (22.3%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>23 (18.9%)</t>
         </is>
       </c>
       <c r="G155">
-        <v>0.2125</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="156">
@@ -5797,96 +5797,96 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>63 (43.2%)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>61 (46.9%)</t>
+          <t>12 (9.2%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>62 (51.2%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="G156">
-        <v>0.2125</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>14 (9.6%)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>10 (7.7%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>9 (7.4%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="G157">
-        <v>0.066</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>24 (16.4%)</t>
+          <t>63 (43.2%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>9 (6.9%)</t>
+          <t>61 (46.9%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>12 (9.8%)</t>
+          <t>63 (51.6%)</t>
         </is>
       </c>
       <c r="G158">
-        <v>0.066</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="159">
@@ -5902,22 +5902,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>21 (14.4%)</t>
+          <t>14 (9.6%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>13 (10.0%)</t>
+          <t>10 (7.7%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>17 (13.9%)</t>
+          <t>9 (7.4%)</t>
         </is>
       </c>
       <c r="G159">
@@ -5937,22 +5937,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>36 (24.7%)</t>
+          <t>24 (16.4%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>31 (23.8%)</t>
+          <t>9 (6.9%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>31 (25.4%)</t>
+          <t>12 (9.8%)</t>
         </is>
       </c>
       <c r="G160">
@@ -5972,22 +5972,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>42 (28.8%)</t>
+          <t>21 (14.4%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>64 (49.2%)</t>
+          <t>13 (10.0%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>47 (38.5%)</t>
+          <t>17 (13.9%)</t>
         </is>
       </c>
       <c r="G161">
@@ -6007,22 +6007,22 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>9 (6.2%)</t>
+          <t>36 (24.7%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>31 (23.8%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>6 (4.9%)</t>
+          <t>31 (25.4%)</t>
         </is>
       </c>
       <c r="G162">
@@ -6032,361 +6032,431 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>42 (28.8%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>64 (49.2%)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>47 (38.5%)</t>
         </is>
       </c>
       <c r="G163">
-        <v>0.8506</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>9 (6.2%)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>4.0 (1.0–5.0)</t>
+          <t>6 (4.9%)</t>
         </is>
       </c>
       <c r="G164">
-        <v>0.0309</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Importancia del costo de compra</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>5.0 (4.0–5.0)</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>5.0 (4.0–5.0)</t>
-        </is>
-      </c>
       <c r="G165">
-        <v>0.0245</v>
+        <v>0.8506</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="G166">
-        <v>0.2279</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Importancia de la comodidad</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>5.0 (2.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="G167">
-        <v>0.6133999999999999</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Importancia del tiempo de viaje</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.0 (2.2–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4.0 (2.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="G168">
-        <v>0.5616</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p28_importancia_riesgo_robo</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Importancia del riesgo de robo o atraco</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>4.0 (1.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="G169">
-        <v>0.4057</v>
+        <v>0.6133999999999999</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p28_importancia_riesgo_acoso</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Importancia del riesgo de acoso</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>4.0 (2.2–5.0)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
           <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>4.0 (3.0–5.0)</t>
-        </is>
-      </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>4.0 (1.2–5.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="G170">
-        <v>0.5503</v>
+        <v>0.5616</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p28_importancia_discriminacion</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Importancia del riesgo de discriminación</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="G171">
-        <v>0.6419</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
+          <t>Importancia del nivel de emisiones</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–3.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (1.2–5.0)</t>
         </is>
       </c>
       <c r="G172">
-        <v>0.1136</v>
+        <v>0.5503</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia de la siniestralidad vial</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3.0 (2.5–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3.0 (2.8–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G173">
-        <v>0.8386</v>
+        <v>0.6419</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G174">
+        <v>0.1136</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G175">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>3.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>4.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>3.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="G174">
-        <v>0.2803</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.5 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G176">
+        <v>0.0007</v>
       </c>
     </row>
   </sheetData>
